--- a/artfynd/A 32559-2023.xlsx
+++ b/artfynd/A 32559-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106541664</v>
+        <v>106541918</v>
       </c>
       <c r="B2" t="n">
-        <v>96237</v>
+        <v>96251</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220093</v>
+        <v>219790</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Rogstaberget, Mpd</t>
+          <t>Långåsen, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>558256.1549743182</v>
+        <v>558598.3929872096</v>
       </c>
       <c r="R2" t="n">
-        <v>6942006.543818026</v>
+        <v>6943102.188668507</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -785,14 +785,14 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Anders Granér</t>
+          <t>Sofia Lundman</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106541918</v>
+        <v>106541919</v>
       </c>
       <c r="B3" t="n">
         <v>96251</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>558598.3929872096</v>
+        <v>558795.5761215064</v>
       </c>
       <c r="R3" t="n">
-        <v>6943102.188668507</v>
+        <v>6943085.884786406</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106541919</v>
+        <v>106541664</v>
       </c>
       <c r="B4" t="n">
-        <v>96251</v>
+        <v>96237</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,34 +920,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219790</v>
+        <v>220093</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Långåsen, Mpd</t>
+          <t>Rogstaberget, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>558795.5761215064</v>
+        <v>558256.1549743182</v>
       </c>
       <c r="R4" t="n">
-        <v>6943085.884786406</v>
+        <v>6942006.543818026</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Sofia Lundman</t>
+          <t>Anders Granér</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
